--- a/haversine_distant/result.xlsx
+++ b/haversine_distant/result.xlsx
@@ -422,1668 +422,2334 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>17.52497259010311</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>17.52m</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>16.37015720537515</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16.37m</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>15.2160336653838</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>15.22m</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>14.06277228442438</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14.06m</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>12.91060408079811</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12.91m</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>11.76039805566181</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11.76m</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>10.61097122972775</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10.61m</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>10.66700454522567</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10.67m</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>10.71624963755207</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10.72m</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>10.77477996901513</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10.77m</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10.83368153780203</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10.83m</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>10.89291291888981</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10.89m</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>10.94603661936951</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10.95m</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>11.00825188778961</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>11.01m</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>11.07823138635565</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>11.08m</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>11251585.27676251</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>11.14m</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>11.19764334160183</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>11.2m</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>12.42171439200622</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12.42m</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>13.65402035218837</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>13.65m</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>14.88017501641425</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>14.88m</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>16.10724684175221</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>16.11m</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>16.10790235212016</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16.11m</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>16.10724655489739</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>16.11m</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>14.88017355558565</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>14.88m</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>13.65401788947529</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13.65m</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>12.4296831453389</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12.43m</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>11.20566279553233</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>11.21306728212383</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>11.20566258915973</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>11.2062831822061</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>11.20628307996735</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>11.20566227389016</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>11.1982597933528</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11.2m</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>11.19825968935567</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>11.2m</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>11.20566196150557</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>11.20504123175688</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>11.20504112722814</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>11.21m</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>11.53957108227422</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>11.54m</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>11.87483527975355</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>11.87m</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>11.83783155792862</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>11.84m</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>12.05235595040313</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12.05m</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>12.11011780836347</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12.11m</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>12.44146003924577</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12.44m</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>11.48614117163701</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>11.49m</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>10.4734163965242</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10.47m</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>9.391631470289338</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>9.39m</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>8.237620697269437</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>8.24m</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>8.244589545785102</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>8.24m</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>8.548244039692122</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>8.55m</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>8.834758016236641</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>8.83m</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>9.090858922390499</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>9.09m</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>9.321940096939123</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>9.32m</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>9.531918915317879</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>9.53m</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>9.707435649108437</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>9.71m</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>9.864766399383821</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>9.86m</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>11.17330899676562</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>11.17m</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>12.48239629353975</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12.48m</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>13.56125723477466</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>13.56m</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>14.800143886719</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>14.8m</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>14.85483399111545</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>14.85m</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>14.91706373879248</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>14.92m</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>15.15992540131696</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15.16m</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>15.28414115898311</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>15.28m</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>14.01111119114086</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>14.01m</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>13.01527662761153</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>13.02m</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>11.96876218788942</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>11.97m</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>10.86029167532935</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>10.86m</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>9.680691826272009</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>9.68m</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>8.424610160826182</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>8.42m</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>8.690493516069926</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>8.69m</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>8.935700404481384</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>8.94m</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>9.162980744232604</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>9.16m</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>9.366232556684261</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>9.37m</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>9.536714137893091</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>9.54m</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>9.675188981671857</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>9.68m</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>9.78234187227746</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>9.78m</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>9.864761553519584</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>9.86m</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>11.09619350434625</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>11.1m</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>12.32835647213794</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12.33m</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>12.49490903227868</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12.49m</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>12.67561574012445</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12.68m</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>12.98701117850063</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12.99m</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>13.20916416107979</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>13.21m</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>13.29636822231971</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>13.3m</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>13.60780681681977</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>13.61m</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>12.64462451977054</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12.64m</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>11.6278779076804</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>11.63m</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>10.56383165348446</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>10.56m</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>9.452795793261474</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>9.45m</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>8.551310362966451</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>8.55m</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>7.629792369324718</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7.63m</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>7.699145617775756</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7.7m</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>7.74954162294987</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>7.75m</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>7.795156683351872</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7.8m</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>7.818738640774186</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>7.82m</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>7.815283459426576</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7.82m</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>7.79074833444328</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>7.79m</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>7.727706582395427</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7.73m</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>7.586498072652784</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7.59m</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>7.812136554986771</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>7.81m</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>8.277828131772646</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>8.28m</t>
+        </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>8.599680204868585</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>8.6m</t>
+        </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>8.767959852337537</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>8.77m</t>
+        </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>9.235959073285347</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>9.24m</t>
+        </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>9.649003951624696</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>9.65m</t>
+        </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>10.01312572105758</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10.01m</t>
+        </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>10.32543543444245</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>10.33m</t>
+        </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>9.099159477677501</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>9.1m</t>
+        </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>8.125927290481139</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>8.13m</t>
+        </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>7.130092612606734</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>7.13m</t>
+        </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>6.117928706067468</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>6.12m</t>
+        </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>6.302756024503277</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>6.3m</t>
+        </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>6.468083818663835</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>6.47m</t>
+        </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>6.611780706815458</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>6.61m</t>
+        </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>6.722681688917768</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>6.72m</t>
+        </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>6.80683310880497</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>6.81m</t>
+        </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>8.117245408464308</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>8.12m</t>
+        </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>9.428665079680693</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>9.43m</t>
+        </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>10.49777013668223</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>10.5m</t>
+        </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>11.72674418086872</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>11.73m</t>
+        </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>11.90180224456066</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>11.9m</t>
+        </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>12.07763866026867</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>12.08m</t>
+        </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>12.39316231322588</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>12.39m</t>
+        </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>12.61134195935353</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>12.61m</t>
+        </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>12.72191168004376</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>12.72m</t>
+        </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>13.01900043365837</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>13.02m</t>
+        </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>13.28984103095113</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>13.29m</t>
+        </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>12.28602530090533</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>12.29m</t>
+        </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>11.23513596950981</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>11.24m</t>
+        </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>10.1467884152293</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>10.15m</t>
+        </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>9.235410333566168</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>9.24m</t>
+        </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>8.316881487241471</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>8.32m</t>
+        </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>7.379559740419219</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7.38m</t>
+        </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>7.564458320456859</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7.56m</t>
+        </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>7.735507711442748</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7.74m</t>
+        </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>7.88489610119313</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7.88m</t>
+        </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>8.012591767668772</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>8.01m</t>
+        </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>8.117241897602032</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>8.12m</t>
+        </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>8.201775346324883</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>8.2m</t>
+        </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>9.323620115815674</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>9.32m</t>
+        </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>10.45701246844341</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>10.46m</t>
+        </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>11.38070779715538</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>11.38m</t>
+        </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>12.44900221814698</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>12.45m</t>
+        </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>13.69516123804318</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>13.7m</t>
+        </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>14.64912285201292</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>14.65m</t>
+        </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>15.65753421928208</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>15.66m</t>
+        </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>15.67396048344856</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>15.67m</t>
+        </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>15.6966154344098</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>15.7m</t>
+        </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>15.89593336416633</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>15.9m</t>
+        </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>14.82213244589224</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>14.82m</t>
+        </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>13.57190131628612</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>13.57m</t>
+        </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>13.85381035914189</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>13.85m</t>
+        </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>14.0727086703329</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>14.07m</t>
+        </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>14.2225828893969</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>14.22m</t>
+        </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>14.3039259322132</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>14.3m</t>
+        </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>14.30829828618577</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>14.31m</t>
+        </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>14.61703237590771</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>14.62m</t>
+        </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>14.89849006929468</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>14.9m</t>
+        </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>15.17419148351652</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>15.17m</t>
+        </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>15.40602984401212</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>15.41m</t>
+        </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>15.6167224006559</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>15.62m</t>
+        </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>15.79065031103107</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>15.79m</t>
+        </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>15.92884985834501</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>15.93m</t>
+        </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>16.03927875404631</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>16.04m</t>
+        </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>16.10719229063909</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>16.11m</t>
+        </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>16.1691331972207</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>16.17m</t>
+        </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>16.24530334024452</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>16.25m</t>
+        </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>15.0859446769002</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>15.09m</t>
+        </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>13.92658616075223</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>13.93m</t>
+        </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>11.32566307538182</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>11.33m</t>
+        </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>11.60786961958247</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>11.61m</t>
+        </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>11.67747283468066</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>11.68m</t>
+        </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>11.74074156763446</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>11.74m</t>
+        </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>11.81251322101652</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>11.81m</t>
+        </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>11.88430478330924</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>11.88m</t>
+        </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>11.9567837778315</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>11.96m</t>
+        </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>12.02993777957297</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>12.03m</t>
+        </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>12.10446750610623</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>12.1m</t>
+        </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>12.1857477847202</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>12.19m</t>
+        </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>12.26009367201119</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>12.26m</t>
+        </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>12.32906189467186</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>12.33m</t>
+        </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>13.56195351416254</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>13.56m</t>
+        </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>14.80083663919099</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>14.8m</t>
+        </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>16.03299667480781</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>16.03m</t>
+        </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>17.26515666343974</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>17.27m</t>
+        </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>17.41882405013748</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>17.42m</t>
+        </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>17.58007992444039</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>17.58m</t>
+        </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>16.50472034704713</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>16.5m</t>
+        </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>15.43197582841288</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>15.43m</t>
+        </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>14.36321246242318</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>14.36m</t>
+        </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>13.2968622195823</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>13.3m</t>
+        </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>12.23711402947375</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>12.24m</t>
+        </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>11.17706897751143</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>11.18m</t>
+        </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>11.35068442691842</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>11.35m</t>
+        </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>11.52632592002733</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>11.53m</t>
+        </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>11.70476050414575</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>11.7m</t>
+        </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>11.87860840222526</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>11.88m</t>
+        </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>12.05989066111906</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>12.06m</t>
+        </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>12.24285808962168</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>12.24m</t>
+        </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>12.42832742678456</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>12.43m</t>
+        </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>12.61445285641504</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>12.61m</t>
+        </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>13.81886276162567</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>13.82m</t>
+        </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>15.027772593026</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>15.03m</t>
+        </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>16.24017744438284</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>16.24m</t>
+        </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>17.46104723907021</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>17.46m</t>
+        </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
-        <v>17.55103711732718</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>17.55m</t>
+        </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>17.64047916405645</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>17.64m</t>
+        </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>17.73108867301622</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>17.73m</t>
+        </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>17.82113512369947</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>17.82m</t>
+        </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>16.70170277379321</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>16.7m</t>
+        </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>15.58622413932248</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>15.59154827121476</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>15.58622383851608</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>15.58622369077883</v>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>15.58622353969846</v>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>15.58622338925257</v>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>15.58090224952796</v>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>15.58m</t>
+        </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>15.58179486500758</v>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>15.58m</t>
+        </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>15.58711540164057</v>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>15.58622279019615</v>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>15.58622263990238</v>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
-        <v>15.58090150064124</v>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>15.58m</t>
+        </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>15.58090135115136</v>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>15.58m</t>
+        </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
-        <v>15.58090120094277</v>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>15.58m</t>
+        </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>15.58090105088499</v>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>15.58m</t>
+        </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
-        <v>15.5817936683545</v>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>15.58m</t>
+        </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>15.58711420174103</v>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>14.47956122149841</v>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>14.48m</t>
+        </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>13.37490286790459</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>13.37m</t>
+        </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
-        <v>12.28842212968111</v>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>12.29m</t>
+        </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
-        <v>11.21544016014629</v>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>11.22m</t>
+        </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
-        <v>10.16046265436755</v>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>10.16m</t>
+        </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
-        <v>9.132018394040026</v>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>9.13m</t>
+        </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>9.237747051706018</v>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>9.24m</t>
+        </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>9.343710602265197</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>9.34m</t>
+        </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>9.449901143616021</v>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>9.45m</t>
+        </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>9.552840518488427</v>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>9.55m</t>
+        </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
-        <v>10.6750033073579</v>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>10.68m</t>
+        </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>11.81826905836242</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>11.82m</t>
+        </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
-        <v>12.97781575067063</v>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>12.98m</t>
+        </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>14.15432476462454</v>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>14.15m</t>
+        </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>14.25286968060283</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>14.25m</t>
+        </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>14.35166977414671</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>14.35m</t>
+        </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
-        <v>14.45167340971203</v>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>14.45m</t>
+        </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>14.5555303997638</v>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>14.56m</t>
+        </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
-        <v>14.65599438209091</v>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>14.66m</t>
+        </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>14.75573797149092</v>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>14.76m</t>
+        </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>14.85571207724333</v>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>14.86m</t>
+        </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>14.95494755507037</v>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>14.95m</t>
+        </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
-        <v>13.89893709387372</v>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>13.9m</t>
+        </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
-        <v>12.85961950383592</v>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
-        <v>11.84260907328445</v>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>11.84m</t>
+        </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
-        <v>10.85111516316728</v>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>10.85m</t>
+        </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
-        <v>2667.52028661525</v>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2667.52m</t>
+        </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
-        <v>8.998668703748534</v>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
-        <v>8.998668692152862</v>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
-        <v>8.996823790212702</v>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
-        <v>9.675058159414441</v>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>9.68m</t>
+        </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
-        <v>10.41357231959286</v>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>10.41m</t>
+        </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
-        <v>11.19856275882565</v>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>11.2m</t>
+        </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
-        <v>12.02277056349585</v>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>12.02m</t>
+        </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
-        <v>12.87782838828431</v>
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>12.88m</t>
+        </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
-        <v>13.76280215858731</v>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>13.76m</t>
+        </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
-        <v>14.66289328197199</v>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>14.66m</t>
+        </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
-        <v>15.58089087031797</v>
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>15.58m</t>
+        </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
-        <v>15.47040774934061</v>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>15.47m</t>
+        </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
-        <v>15.36665029955652</v>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>15.37m</t>
+        </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
-        <v>15.47576640642857</v>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>15.48m</t>
+        </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
-        <v>15.58621124199076</v>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
-        <v>15.58710355394116</v>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>15.587103404791</v>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>15.59m</t>
+        </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
-        <v>14.47955180111067</v>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>14.48m</t>
+        </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
-        <v>13.3748948264357</v>
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>13.37m</t>
+        </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
-        <v>12.28841542455317</v>
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>12.29m</t>
+        </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
-        <v>11.21543476110589</v>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>11.22m</t>
+        </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
-        <v>10.16045851348045</v>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>10.16m</t>
+        </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
-        <v>9.128383554842248</v>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>9.13m</t>
+        </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
-        <v>9.237744134674612</v>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>9.24m</t>
+        </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
-        <v>9.343707717674656</v>
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>9.34m</t>
+        </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
-        <v>9.449898291033744</v>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>9.45m</t>
+        </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
-        <v>9.556308285348102</v>
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>9.56m</t>
+        </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
-        <v>9.660524771530779</v>
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>9.66m</t>
+        </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
-        <v>9.767391641699884</v>
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>9.77m</t>
+        </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
-        <v>9.790649369413698</v>
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>9.79m</t>
+        </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
-        <v>9.986065677668117</v>
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>9.99m</t>
+        </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
-        <v>10.09347339494774</v>
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>10.09m</t>
+        </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
-        <v>10.20106117778375</v>
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>10.2m</t>
+        </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
-        <v>10.30882339203169</v>
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>10.31m</t>
+        </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
-        <v>10.4135708170207</v>
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>10.41m</t>
+        </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
-        <v>10.52273903608565</v>
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>10.52m</t>
+        </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
-        <v>10.63102649043648</v>
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>10.63m</t>
+        </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
-        <v>10.73946731432173</v>
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>10.74m</t>
+        </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
-        <v>10.85006870093937</v>
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>10.85m</t>
+        </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
-        <v>9.900365626972251</v>
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>9.9m</t>
+        </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
-        <v>8.998668117893862</v>
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
-        <v>8.9975802989968</v>
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
-        <v>8.996823211628135</v>
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
-        <v>9.896785082148368</v>
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>9.9m</t>
+        </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
-        <v>10.84701167155207</v>
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>10.85m</t>
+        </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
-        <v>11.83457529641996</v>
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>11.83m</t>
+        </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
-        <v>12.85087098543023</v>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>12.85m</t>
+        </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="n">
-        <v>12.85187309341147</v>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>12.85m</t>
+        </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="n">
-        <v>12.85574112729642</v>
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="n">
-        <v>12.85574106231166</v>
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="n">
-        <v>12.85574099735111</v>
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="n">
-        <v>12.85674282396194</v>
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="n">
-        <v>12.86061558180242</v>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="n">
-        <v>12.85961392777024</v>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="n">
-        <v>12.85574073644205</v>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="n">
-        <v>12.85674256243594</v>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
-        <v>12.85961372997664</v>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>12.86m</t>
+        </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
-        <v>11.84260471577796</v>
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>11.84m</t>
+        </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
-        <v>10.85111212749094</v>
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>10.85m</t>
+        </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="n">
-        <v>9.900364944607706</v>
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>9.9m</t>
+        </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="n">
-        <v>8.998667783479009</v>
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="n">
-        <v>8.997579965233472</v>
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="n">
-        <v>8.995734847629402</v>
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="n">
-        <v>8.883699325564544</v>
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>8.88m</t>
+        </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="n">
-        <v>8.770641485570577</v>
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>8.77m</t>
+        </is>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="n">
-        <v>8.883699315571493</v>
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>8.88m</t>
+        </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
-        <v>8.99682285850589</v>
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>9.0m</t>
+        </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
-        <v>9.111098301348735</v>
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>9.11m</t>
+        </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
-        <v>9.226146005981249</v>
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>9.23m</t>
+        </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
-        <v>9.225057004326105</v>
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>9.23m</t>
+        </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
-        <v>9.223257400066824</v>
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>9.22m</t>
+        </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
-        <v>9.224346604234126</v>
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>9.22m</t>
+        </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
-        <v>9.226145985580352</v>
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>9.23m</t>
+        </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
-        <v>9.226145980726187</v>
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>9.23m</t>
+        </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="n">
-        <v>9.224346589348983</v>
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>9.22m</t>
+        </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="n">
-        <v>9.224346584765369</v>
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>9.22m</t>
+        </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="n">
-        <v>9.2232573690795</v>
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>9.22m</t>
+        </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="n">
-        <v>8.276176613671481</v>
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>8.28m</t>
+        </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="n">
-        <v>7.413375998576491</v>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>7.41m</t>
+        </is>
       </c>
     </row>
   </sheetData>
